--- a/biology/Médecine/Veine_saphène_antérieure_de_Loder/Veine_saphène_antérieure_de_Loder.xlsx
+++ b/biology/Médecine/Veine_saphène_antérieure_de_Loder/Veine_saphène_antérieure_de_Loder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+          <t>Veine_saphène_antérieure_de_Loder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine saphène antérieure de Loder (ou veine saphène accessoire antérieure) est une veine du membre inférieur située dans la cuisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+          <t>Veine_saphène_antérieure_de_Loder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine saphène antérieure de Loder nait du réseau veineux de la face médiale du genou.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+          <t>Veine_saphène_antérieure_de_Loder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine saphène antérieure de Loder chemine sur la face antérieure de la cuisse à l'avant de la veine grande saphène.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+          <t>Veine_saphène_antérieure_de_Loder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine saphène antérieure de Loder se jette dans la veine grande saphène au niveau de l'arc saphène.
-Variation
-La veine saphène antérieure de Loder peut se jeter directement dans la veine fémorale.
 </t>
         </is>
       </c>
@@ -588,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+          <t>Veine_saphène_antérieure_de_Loder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +619,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine saphène antérieure de Loder peut se jeter directement dans la veine fémorale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Veine_saphène_antérieure_de_Loder</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine_saph%C3%A8ne_ant%C3%A9rieure_de_Loder</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine saphène antérieure de Loder peut faire l'objet d'un développement variqueux indépendant du reste du système veineux.
 L'importance de cette veine vient de la confusion fréquente entre elle et la veine grande saphène réalisée à l'examen échographique.
